--- a/schedule/IMG-20230212-WA0000.xlsx
+++ b/schedule/IMG-20230212-WA0000.xlsx
@@ -633,11 +633,7 @@
           <t>ERROR</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>ERROR</t>
@@ -660,11 +656,7 @@
           <t>ERROR</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>ERROR</t>
@@ -743,7 +735,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ISAAC S SANCHEZ</t>
+          <t>ISAAC SANCHEZ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1013,7 +1005,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ISAAC S SANCHEZ</t>
+          <t>ISAAC SANCHEZ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
